--- a/template/zstq_jyb.xlsx
+++ b/template/zstq_jyb.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11110"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\python\election-s-prediction\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taoting/Code/python/election-s-prediction/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8BDE046-F71D-4809-B072-C3A119AD1A8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{779C8667-6D61-664E-A1F7-718B34321548}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4230" yWindow="3270" windowWidth="28800" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4240" yWindow="3280" windowWidth="28800" windowHeight="11300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,10 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
   <si>
-    <t>在绍台企经营情况表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -76,6 +72,10 @@
   </si>
   <si>
     <t>年度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在绍台企经营情况</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -83,7 +83,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -513,17 +513,17 @@
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T5" sqref="T5"/>
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="26">
       <c r="A1" s="7" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -541,88 +541,89 @@
       <c r="O1" s="8"/>
       <c r="P1" s="8"/>
     </row>
-    <row r="2" spans="1:16" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" s="2" customFormat="1" ht="16">
       <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>2</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>3</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I2" s="4"/>
       <c r="J2" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
       <c r="M2" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N2" s="4"/>
       <c r="O2" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P2" s="4"/>
     </row>
-    <row r="3" spans="1:16" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" s="2" customFormat="1" ht="16">
       <c r="A3" s="4"/>
       <c r="B3" s="6"/>
       <c r="C3" s="4"/>
       <c r="D3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="F3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M3" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:P1"/>
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="J2:L2"/>
@@ -632,7 +633,6 @@
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A1:P1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
